--- a/src/test/java/resources/credentials.xlsx
+++ b/src/test/java/resources/credentials.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Valid</t>
+  </si>
+  <si>
+    <t>Invalid</t>
   </si>
 </sst>
 </file>

--- a/src/test/java/resources/credentials.xlsx
+++ b/src/test/java/resources/credentials.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -390,7 +390,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/resources/credentials.xlsx
+++ b/src/test/java/resources/credentials.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -390,7 +390,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
